--- a/Docs/Modelo Físico/IndicesPorDefecto.xlsx
+++ b/Docs/Modelo Físico/IndicesPorDefecto.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\OneDrive\Documentos\Cuarto Semestre\Sistrans\SISTRANS\Docs\Modelo Físico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\sa.silva1\Documents\NetBeansProjects\SISTRANS\Docs\Modelo Físico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{43360F3A-5EA3-4027-B83C-99EAC14BA5C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>ANÁLISIS</t>
   </si>
@@ -116,32 +116,61 @@
     <t>ZONA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ÍNDICES ENCONTRADOS (FOTO)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID ya que es aquel atributo por el cual normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID del espacio y de la reserva debido a que ellos dos conforman la llave primaria de esta tabla ademas de que son aquellos atributo por los cuales normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID del producto y al del local al que pertenece este ya que son aquellos atributos por los cuales normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID del pedido, y el de cada uno de los productos equivalentes además del id del menu ya que son aquellos  atributos por los cuales normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID del pedido y el del menu ya que son aquellos atributos por los cuales normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t>NOS SIRVE/ NO NOS SIRVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÍNDICES ENCONTRADOS (FOTO) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID del pedido, junto al local al que pertenece y el producto que se solicitó ya que es aquel atributo por el cual normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t>Si ya que encontrar una tupla en específico por su ID o PK en este caso ayuda notablemente a localizarlo, ya que denota de alguna manera u otra un orden específico en los datos.</t>
+  </si>
+  <si>
+    <t>Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID de la caracteristica y el del producto al cual pertenece son lo escencial para localizar una tupla de esta tabla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID de los productos equivalentes como así mismo el restaurante donde esto es válido ya que son aquellos atributos por los cuales normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t>Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID del menu y el id del producto contenido ya que son lo escencial para acceder a cualquier tupla de esta tabla.</t>
+  </si>
+  <si>
+    <t>Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID del ingrediente  contenido junto con el producto al que peretenece ya que es lo escencial para acceder a cualquier tupla de esta tabla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID de los productos equivalentes y el local donde este hecho es valido ya que son aquellos atributos por los cuales normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a lo obtenido, podemos decir que se creó el indice por defecto en la columna correspondiente al ID de los menus equivalentes y el local donde esto es valido ya que son aquellos atributos mediante los cuales normalmante se accede a una tupla de esta tabla, por su llave primaria. </t>
+  </si>
+  <si>
+    <t>Si ya que encontrar una tupla en específico por su ID o PK (conformado por FK's) en este caso ayuda notablemente a localizarlo, ya que denota de alguna manera u otra un orden específico en los datos.</t>
+  </si>
+  <si>
+    <t>Si ya que encontrar una tupla en específico por su ID o PK(conformado por FK's) en este caso ayuda notablemente a localizarlo, ya que denota de alguna manera u otra un orden específico en los datos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,21 +181,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,15 +223,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Énfasis2" xfId="2" builtinId="33"/>
+    <cellStyle name="Énfasis5" xfId="3" builtinId="45"/>
+    <cellStyle name="Énfasis6" xfId="4" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,8 +503,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9609653</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>36</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>409611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,8 +653,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9358171</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>381033</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -708,8 +801,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10051651</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2776</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>34</xdr:rowOff>
     </xdr:to>
@@ -859,7 +952,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9960203</xdr:colOff>
+      <xdr:colOff>9779228</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>388654</xdr:rowOff>
     </xdr:to>
@@ -1258,8 +1351,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10051651</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2776</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>419136</xdr:rowOff>
     </xdr:to>
@@ -1542,6 +1635,50 @@
         <a:xfrm>
           <a:off x="2095500" y="11765280"/>
           <a:ext cx="8413209" cy="457240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9450119</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="10553700"/>
+          <a:ext cx="9450119" cy="419158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1849,169 +1986,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA1D83B-A836-490A-AE21-64D8031331FF}">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="146.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="146.7109375" customWidth="1"/>
+    <col min="3" max="3" width="116.85546875" customWidth="1"/>
+    <col min="4" max="4" width="92.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="47.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
